--- a/notes/assets/other/hboc.xlsx
+++ b/notes/assets/other/hboc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hclimente/projects/wisdom/notes/bio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hclimente/projects/wisdom/notes/assets/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,24 +186,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -228,9 +212,40 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,23 +265,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -553,362 +686,478 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="A1:H27"/>
+      <selection activeCell="B27" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="C18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="C22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="C25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
